--- a/cv/marketable_domain_xp.xlsx
+++ b/cv/marketable_domain_xp.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>rare</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>conclusion from personal xp</t>
+  </si>
+  <si>
+    <t>background color signifies weight</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
   <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -923,8 +926,12 @@
       <c r="I2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="L2" s="6" t="s">
         <v>85</v>
       </c>
@@ -1519,10 +1526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cv/marketable_domain_xp.xlsx
+++ b/cv/marketable_domain_xp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>rare</t>
   </si>
@@ -291,9 +291,6 @@
 can be repetitive</t>
   </si>
   <si>
-    <t>helps keep engegement #$ is primary factor</t>
-  </si>
-  <si>
     <t>longevity^churn of domain+skill</t>
   </si>
   <si>
@@ -305,6 +302,12 @@
   </si>
   <si>
     <t>background color signifies weight</t>
+  </si>
+  <si>
+    <t>intrinsic engegement #$ is primary factor</t>
+  </si>
+  <si>
+    <t>extrinsic</t>
   </si>
 </sst>
 </file>
@@ -845,7 +848,7 @@
   <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -885,7 +888,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>45</v>
@@ -906,10 +909,10 @@
         <v>32</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -924,10 +927,10 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>85</v>
@@ -943,7 +946,7 @@
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:16" s="24" customFormat="1" ht="3.75" customHeight="1">
@@ -1534,7 +1537,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/cv/marketable_domain_xp.xlsx
+++ b/cv/marketable_domain_xp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
   <si>
     <t>rare</t>
   </si>
@@ -174,9 +174,6 @@
     <t>drv pricing/risk analytics # ibank-only</t>
   </si>
   <si>
-    <t>bond math #always a secondary skill</t>
-  </si>
-  <si>
     <t xml:space="preserve">no </t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>math complexity</t>
   </si>
   <si>
-    <t>(LG2)premium # additional dimension</t>
-  </si>
-  <si>
     <t>very poor</t>
   </si>
   <si>
@@ -287,10 +281,6 @@
     <t>helpful</t>
   </si>
   <si>
-    <t>not too plain but 
-can be repetitive</t>
-  </si>
-  <si>
     <t>longevity^churn of domain+skill</t>
   </si>
   <si>
@@ -304,21 +294,37 @@
     <t>background color signifies weight</t>
   </si>
   <si>
-    <t>intrinsic engegement #$ is primary factor</t>
-  </si>
-  <si>
-    <t>extrinsic</t>
+    <t>(LG2)premium # additional dim</t>
+  </si>
+  <si>
+    <t>intrinsic engegement</t>
+  </si>
+  <si>
+    <t>extrinsic engegement #$</t>
+  </si>
+  <si>
+    <t>somewhat</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>some spice but 
+can be repetitive</t>
+  </si>
+  <si>
+    <t>bond math #always a secondary requirement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -326,7 +332,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,36 +388,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -434,49 +440,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -511,37 +480,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -845,657 +817,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P22"/>
+  <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" customWidth="1"/>
-    <col min="3" max="4" width="7.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="39" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="74.25" customHeight="1">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="24" t="s">
         <v>37</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>87</v>
+      <c r="N1" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="2:16" ht="31.5" customHeight="1">
-      <c r="B2" s="27" t="s">
-        <v>86</v>
+    <row r="2" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" s="24" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="6" t="s">
+      <c r="J3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" s="20" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0.02</v>
+        <v>3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="36.75" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7">
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="49.5">
-      <c r="B7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="49.5">
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="49.5">
-      <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="6" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="2:16" ht="33">
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="33">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="33">
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4</v>
+      </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="O17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1507,14 +1487,31 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="22" spans="2:16">
-      <c r="F22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="O22" s="15"/>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1533,11 +1530,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
